--- a/images/Zillow/Tables/Zillow Summary Table.xlsx
+++ b/images/Zillow/Tables/Zillow Summary Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecnusbaum/Dropbox (UCSB EFP)/EFP Monthly Update/Output/Zillow/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecnusbaum/Box/economic forecast project/frequent_releases/housing_update/output/Zillow/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D0EC92-993F-AA44-9CCB-A92C1C0F9DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2DA351-2753-F943-9C1D-80849FDBC5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24500" yWindow="3020" windowWidth="25600" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1287,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="45">
-        <v>43756</v>
+        <v>43929</v>
       </c>
       <c r="B1" s="45"/>
     </row>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>43709</v>
+        <v>43862</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1373,19 +1373,19 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="26">
-        <v>601000</v>
+        <v>652059</v>
       </c>
       <c r="D9" s="10">
-        <v>-2.8206404513024799E-3</v>
+        <v>6.2654417676570899E-3</v>
       </c>
       <c r="E9" s="30">
-        <v>1.2125294712024301E-2</v>
+        <v>2.1847056500521801E-2</v>
       </c>
       <c r="F9" s="33">
-        <v>0.87878344787249596</v>
+        <v>0.84518779099308405</v>
       </c>
       <c r="G9" s="33">
-        <v>2836</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1394,19 +1394,19 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="26">
-        <v>550800</v>
+        <v>571875</v>
       </c>
       <c r="D10" s="10">
-        <v>2.1834061135370701E-3</v>
+        <v>9.4079022849022902E-3</v>
       </c>
       <c r="E10" s="30">
-        <v>9.5307917888563E-3</v>
+        <v>3.8766068519053398E-2</v>
       </c>
       <c r="F10" s="33">
-        <v>1.01981114608406</v>
+        <v>1.0879097674560201</v>
       </c>
       <c r="G10" s="33">
-        <v>2633</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1415,16 +1415,16 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="26">
-        <v>231000</v>
+        <v>247084</v>
       </c>
       <c r="D11" s="40">
-        <v>3.0395136778116299E-3</v>
+        <v>3.86784327109035E-3</v>
       </c>
       <c r="E11" s="31">
-        <v>4.8094373865698703E-2</v>
+        <v>3.86175529746067E-2</v>
       </c>
       <c r="F11" s="33">
-        <v>1.1521197007481301</v>
+        <v>1.1572695849296999</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>24</v>
@@ -1460,19 +1460,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="26">
-        <v>850700</v>
+        <v>897325</v>
       </c>
       <c r="D14" s="10">
-        <v>3.18396226415096E-3</v>
+        <v>3.1750113193624902E-3</v>
       </c>
       <c r="E14" s="30">
-        <v>-2.2284775979357599E-3</v>
+        <v>3.1761328318897801E-3</v>
       </c>
       <c r="F14" s="33">
-        <v>0.93648172611184499</v>
+        <v>0.92600523411088198</v>
       </c>
       <c r="G14" s="33">
-        <v>3667</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1481,19 +1481,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="26">
-        <v>813900</v>
+        <v>846130</v>
       </c>
       <c r="D15" s="10">
-        <v>-1.34969325153378E-3</v>
+        <v>4.0380811342226597E-3</v>
       </c>
       <c r="E15" s="30">
-        <v>-3.06222439980397E-3</v>
+        <v>2.06449822982697E-2</v>
       </c>
       <c r="F15" s="33">
-        <v>0.89145673603504905</v>
+        <v>0.83037691946090697</v>
       </c>
       <c r="G15" s="33">
-        <v>3643</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1502,19 +1502,19 @@
         <v>8</v>
       </c>
       <c r="C16" s="26">
-        <v>350200</v>
+        <v>366312</v>
       </c>
       <c r="D16" s="40">
-        <v>-1.4257199885942E-3</v>
+        <v>5.4649608449690596E-3</v>
       </c>
       <c r="E16" s="31">
-        <v>1.1554015020219599E-2</v>
+        <v>2.29549948058041E-2</v>
       </c>
       <c r="F16" s="33">
-        <v>0.79338468509288596</v>
+        <v>0.73006002917752899</v>
       </c>
       <c r="G16" s="33">
-        <v>1957</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1523,19 +1523,19 @@
         <v>13</v>
       </c>
       <c r="C17" s="26">
-        <v>3118400</v>
+        <v>3387914</v>
       </c>
       <c r="D17" s="10">
-        <v>-9.1195068475740104E-3</v>
+        <v>2.7362846138523399E-3</v>
       </c>
       <c r="E17" s="30">
-        <v>-3.9871917238831198E-2</v>
+        <v>9.6228362283090597E-4</v>
       </c>
       <c r="F17" s="33">
-        <v>1.0362198444872699</v>
+        <v>1.39438576735556</v>
       </c>
       <c r="G17" s="33">
-        <v>10756</v>
+        <v>10114</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1544,19 +1544,19 @@
         <v>9</v>
       </c>
       <c r="C18" s="26">
-        <v>1138000</v>
+        <v>1133607</v>
       </c>
       <c r="D18" s="10">
-        <v>-1.6668128783227101E-3</v>
+        <v>2.8645513102358898E-3</v>
       </c>
       <c r="E18" s="30">
-        <v>-3.0416631166396799E-2</v>
+        <v>8.4071961542704406E-3</v>
       </c>
       <c r="F18" s="33">
-        <v>1.0347335879250801</v>
+        <v>0.94392836980180606</v>
       </c>
       <c r="G18" s="33">
-        <v>4106</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1565,19 +1565,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="26">
-        <v>394700</v>
+        <v>408859</v>
       </c>
       <c r="D19" s="40">
-        <v>-1.7703591299949E-3</v>
+        <v>5.4346623254943899E-3</v>
       </c>
       <c r="E19" s="31">
-        <v>3.6502100840336102E-2</v>
+        <v>3.4211578058047198E-2</v>
       </c>
       <c r="F19" s="33">
-        <v>0.86367614879649901</v>
+        <v>0.81049165639161203</v>
       </c>
       <c r="G19" s="33">
-        <v>2093</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1586,19 +1586,19 @@
         <v>11</v>
       </c>
       <c r="C20" s="41">
-        <v>764000</v>
+        <v>815110</v>
       </c>
       <c r="D20" s="43">
-        <v>-3.13152400835071E-3</v>
+        <v>3.68049838850304E-6</v>
       </c>
       <c r="E20" s="42">
-        <v>-1.31748902092482E-2</v>
+        <v>2.3683393523521399E-4</v>
       </c>
       <c r="F20" s="44">
-        <v>0.86065112087416895</v>
+        <v>0.85122758649498198</v>
       </c>
       <c r="G20" s="44">
-        <v>3164</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1695,11 +1695,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1714,11 +1709,6 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1733,10 +1723,5 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/images/Zillow/Tables/Zillow Summary Table.xlsx
+++ b/images/Zillow/Tables/Zillow Summary Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecnusbaum/Box/economic forecast project/frequent_releases/housing_update/output/Zillow/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecnusbaum/Box/economic_forecast_project/frequent_releases/housing_update/output/Zillow/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2DA351-2753-F943-9C1D-80849FDBC5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9522269C-3ABD-934B-9D3D-5DDA1A7717A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15440" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1287,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="45">
-        <v>43929</v>
+        <v>43999</v>
       </c>
       <c r="B1" s="45"/>
     </row>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1373,16 +1373,16 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="26">
-        <v>652059</v>
+        <v>658017</v>
       </c>
       <c r="D9" s="10">
-        <v>6.2654417676570899E-3</v>
+        <v>5.86382056342205E-3</v>
       </c>
       <c r="E9" s="30">
-        <v>2.1847056500521801E-2</v>
+        <v>2.54341619707774E-2</v>
       </c>
       <c r="F9" s="33">
-        <v>0.84518779099308405</v>
+        <v>0.84560412870327795</v>
       </c>
       <c r="G9" s="33">
         <v>2877</v>
@@ -1394,16 +1394,16 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="26">
-        <v>571875</v>
+        <v>578267</v>
       </c>
       <c r="D10" s="10">
-        <v>9.4079022849022902E-3</v>
+        <v>7.4776775991984802E-3</v>
       </c>
       <c r="E10" s="30">
-        <v>3.8766068519053398E-2</v>
+        <v>4.3929500499157802E-2</v>
       </c>
       <c r="F10" s="33">
-        <v>1.0879097674560201</v>
+        <v>1.0914301892134199</v>
       </c>
       <c r="G10" s="33">
         <v>2657</v>
@@ -1415,16 +1415,16 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="26">
-        <v>247084</v>
+        <v>248857</v>
       </c>
       <c r="D11" s="40">
-        <v>3.86784327109035E-3</v>
+        <v>4.42361792211043E-3</v>
       </c>
       <c r="E11" s="31">
-        <v>3.86175529746067E-2</v>
+        <v>4.0554779685396197E-2</v>
       </c>
       <c r="F11" s="33">
-        <v>1.1572695849296999</v>
+        <v>1.1628614418422101</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>24</v>
@@ -1460,16 +1460,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="26">
-        <v>897325</v>
+        <v>903246</v>
       </c>
       <c r="D14" s="10">
-        <v>3.1750113193624902E-3</v>
+        <v>6.2228460664393E-3</v>
       </c>
       <c r="E14" s="30">
-        <v>3.1761328318897801E-3</v>
+        <v>1.1137393274577301E-2</v>
       </c>
       <c r="F14" s="33">
-        <v>0.92600523411088198</v>
+        <v>0.93132162160490095</v>
       </c>
       <c r="G14" s="33">
         <v>3853</v>
@@ -1481,16 +1481,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="26">
-        <v>846130</v>
+        <v>856454</v>
       </c>
       <c r="D15" s="10">
-        <v>4.0380811342226597E-3</v>
+        <v>6.9828280512396201E-3</v>
       </c>
       <c r="E15" s="30">
-        <v>2.06449822982697E-2</v>
+        <v>3.0349110411476098E-2</v>
       </c>
       <c r="F15" s="33">
-        <v>0.83037691946090697</v>
+        <v>0.836244479660055</v>
       </c>
       <c r="G15" s="33">
         <v>3604</v>
@@ -1502,16 +1502,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="26">
-        <v>366312</v>
+        <v>368496</v>
       </c>
       <c r="D16" s="40">
-        <v>5.4649608449690596E-3</v>
+        <v>6.5914014035068904E-3</v>
       </c>
       <c r="E16" s="31">
-        <v>2.29549948058041E-2</v>
+        <v>3.0936833800547101E-2</v>
       </c>
       <c r="F16" s="33">
-        <v>0.73006002917752899</v>
+        <v>0.73414791099281396</v>
       </c>
       <c r="G16" s="33">
         <v>1989</v>
@@ -1523,16 +1523,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="26">
-        <v>3387914</v>
+        <v>3276825</v>
       </c>
       <c r="D17" s="10">
-        <v>2.7362846138523399E-3</v>
+        <v>2.9984429278100402E-3</v>
       </c>
       <c r="E17" s="30">
-        <v>9.6228362283090597E-4</v>
+        <v>6.8745828790837101E-3</v>
       </c>
       <c r="F17" s="33">
-        <v>1.39438576735556</v>
+        <v>1.39801298340043</v>
       </c>
       <c r="G17" s="33">
         <v>10114</v>
@@ -1544,16 +1544,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="26">
-        <v>1133607</v>
+        <v>1134649</v>
       </c>
       <c r="D18" s="10">
-        <v>2.8645513102358898E-3</v>
+        <v>6.2673934135166797E-3</v>
       </c>
       <c r="E18" s="30">
-        <v>8.4071961542704406E-3</v>
+        <v>1.9905546407024102E-2</v>
       </c>
       <c r="F18" s="33">
-        <v>0.94392836980180606</v>
+        <v>0.95263878615584996</v>
       </c>
       <c r="G18" s="33">
         <v>4185</v>
@@ -1565,16 +1565,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="26">
-        <v>408859</v>
+        <v>412599</v>
       </c>
       <c r="D19" s="40">
-        <v>5.4346623254943899E-3</v>
+        <v>5.8532708594385401E-3</v>
       </c>
       <c r="E19" s="31">
-        <v>3.4211578058047198E-2</v>
+        <v>3.9829130911427799E-2</v>
       </c>
       <c r="F19" s="33">
-        <v>0.81049165639161203</v>
+        <v>0.81380473372781104</v>
       </c>
       <c r="G19" s="33">
         <v>2117</v>
@@ -1586,16 +1586,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="41">
-        <v>815110</v>
+        <v>813113</v>
       </c>
       <c r="D20" s="43">
-        <v>3.68049838850304E-6</v>
+        <v>1.62479643850544E-3</v>
       </c>
       <c r="E20" s="42">
-        <v>2.3683393523521399E-4</v>
+        <v>1.7025344603076599E-3</v>
       </c>
       <c r="F20" s="44">
-        <v>0.85122758649498198</v>
+        <v>0.85157613949245603</v>
       </c>
       <c r="G20" s="44">
         <v>3257</v>

--- a/images/Zillow/Tables/Zillow Summary Table.xlsx
+++ b/images/Zillow/Tables/Zillow Summary Table.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecnusbaum/Box/economic_forecast_project/frequent_releases/housing_update/output/Zillow/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Box/economic_forecast_project/frequent_releases/housing_update/output/Zillow/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9522269C-3ABD-934B-9D3D-5DDA1A7717A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15440" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="480" windowWidth="25600" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Data Seasonally Adjusted</t>
   </si>
@@ -123,20 +122,11 @@
   <si>
     <t xml:space="preserve">*Represents an area's current median home value divided by its home value at the pre-recession peak. </t>
   </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Current Median</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -508,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -565,19 +555,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -784,22 +761,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -831,7 +808,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -854,7 +831,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -866,38 +843,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -909,10 +883,10 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1269,11 +1243,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1286,10 +1260,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="45">
-        <v>43999</v>
-      </c>
-      <c r="B1" s="45"/>
+      <c r="A1" s="44">
+        <v>44222</v>
+      </c>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1324,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>43891</v>
+        <v>44166</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1340,139 +1314,115 @@
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="9" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="26">
-        <v>658017</v>
+      <c r="C9" s="25">
+        <v>707573</v>
       </c>
       <c r="D9" s="10">
-        <v>5.86382056342205E-3</v>
-      </c>
-      <c r="E9" s="30">
-        <v>2.54341619707774E-2</v>
-      </c>
-      <c r="F9" s="33">
-        <v>0.84560412870327795</v>
-      </c>
-      <c r="G9" s="33">
-        <v>2877</v>
+        <v>8.0119780781795508E-3</v>
+      </c>
+      <c r="E9" s="29">
+        <v>8.6888333169484994E-2</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.90617944215841795</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="26">
-        <v>578267</v>
+      <c r="C10" s="25">
+        <v>617633</v>
       </c>
       <c r="D10" s="10">
-        <v>7.4776775991984802E-3</v>
-      </c>
-      <c r="E10" s="30">
-        <v>4.3929500499157802E-2</v>
-      </c>
-      <c r="F10" s="33">
-        <v>1.0914301892134199</v>
-      </c>
-      <c r="G10" s="33">
-        <v>2657</v>
+        <v>1.18728149072882E-2</v>
+      </c>
+      <c r="E10" s="29">
+        <v>9.8652905778114502E-2</v>
+      </c>
+      <c r="F10" s="32">
+        <v>1.17072176751345</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="26">
-        <v>248857</v>
-      </c>
-      <c r="D11" s="40">
-        <v>4.42361792211043E-3</v>
-      </c>
-      <c r="E11" s="31">
-        <v>4.0554779685396197E-2</v>
-      </c>
-      <c r="F11" s="33">
-        <v>1.1628614418422101</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>24</v>
+      <c r="C11" s="25">
+        <v>266104</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1.08414055080721E-2</v>
+      </c>
+      <c r="E11" s="30">
+        <v>8.3851627382217894E-2</v>
+      </c>
+      <c r="F11" s="32">
+        <v>1.24295389789341</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="26"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33" t="s">
-        <v>24</v>
-      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="26">
-        <v>903246</v>
+      <c r="C14" s="25">
+        <v>992685</v>
       </c>
       <c r="D14" s="10">
-        <v>6.2228460664393E-3</v>
-      </c>
-      <c r="E14" s="30">
-        <v>1.1137393274577301E-2</v>
-      </c>
-      <c r="F14" s="33">
-        <v>0.93132162160490095</v>
-      </c>
-      <c r="G14" s="33">
-        <v>3853</v>
+        <v>1.14143713282566E-2</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.108847906706582</v>
+      </c>
+      <c r="F14" s="32">
+        <v>1.01564570239402</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1480,20 +1430,17 @@
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="26">
-        <v>856454</v>
+      <c r="C15" s="25">
+        <v>917707</v>
       </c>
       <c r="D15" s="10">
-        <v>6.9828280512396201E-3</v>
-      </c>
-      <c r="E15" s="30">
-        <v>3.0349110411476098E-2</v>
-      </c>
-      <c r="F15" s="33">
-        <v>0.836244479660055</v>
-      </c>
-      <c r="G15" s="33">
-        <v>3604</v>
+        <v>6.67822851432454E-3</v>
+      </c>
+      <c r="E15" s="29">
+        <v>7.3786105592256804E-2</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.88246827677194295</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1501,20 +1448,17 @@
       <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="26">
-        <v>368496</v>
-      </c>
-      <c r="D16" s="40">
-        <v>6.5914014035068904E-3</v>
-      </c>
-      <c r="E16" s="31">
-        <v>3.0936833800547101E-2</v>
-      </c>
-      <c r="F16" s="33">
-        <v>0.73414791099281396</v>
-      </c>
-      <c r="G16" s="33">
-        <v>1989</v>
+      <c r="C16" s="25">
+        <v>406307</v>
+      </c>
+      <c r="D16" s="39">
+        <v>1.09251684431573E-2</v>
+      </c>
+      <c r="E16" s="30">
+        <v>9.9339271412801203E-2</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0.79364276338406703</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1522,20 +1466,17 @@
       <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="26">
-        <v>3276825</v>
+      <c r="C17" s="25">
+        <v>3469440</v>
       </c>
       <c r="D17" s="10">
-        <v>2.9984429278100402E-3</v>
-      </c>
-      <c r="E17" s="30">
-        <v>6.8745828790837101E-3</v>
-      </c>
-      <c r="F17" s="33">
-        <v>1.39801298340043</v>
-      </c>
-      <c r="G17" s="33">
-        <v>10114</v>
+        <v>9.3148322535994092E-3</v>
+      </c>
+      <c r="E17" s="29">
+        <v>8.9005577424629195E-2</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1.5067515100347599</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1543,20 +1484,17 @@
       <c r="B18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="26">
-        <v>1134649</v>
+      <c r="C18" s="25">
+        <v>1248479</v>
       </c>
       <c r="D18" s="10">
-        <v>6.2673934135166797E-3</v>
-      </c>
-      <c r="E18" s="30">
-        <v>1.9905546407024102E-2</v>
-      </c>
-      <c r="F18" s="33">
-        <v>0.95263878615584996</v>
-      </c>
-      <c r="G18" s="33">
-        <v>4185</v>
+        <v>8.6811867493339408E-3</v>
+      </c>
+      <c r="E18" s="29">
+        <v>9.8297763780635899E-2</v>
+      </c>
+      <c r="F18" s="32">
+        <v>1.0300514415599999</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1564,41 +1502,35 @@
       <c r="B19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="26">
-        <v>412599</v>
-      </c>
-      <c r="D19" s="40">
-        <v>5.8532708594385401E-3</v>
-      </c>
-      <c r="E19" s="31">
-        <v>3.9829130911427799E-2</v>
-      </c>
-      <c r="F19" s="33">
-        <v>0.81380473372781104</v>
-      </c>
-      <c r="G19" s="33">
-        <v>2117</v>
+      <c r="C19" s="25">
+        <v>452491</v>
+      </c>
+      <c r="D19" s="39">
+        <v>8.8940517545073004E-3</v>
+      </c>
+      <c r="E19" s="30">
+        <v>9.4490912521225004E-2</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0.87675572615225394</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="41">
-        <v>813113</v>
-      </c>
-      <c r="D20" s="43">
-        <v>1.62479643850544E-3</v>
-      </c>
-      <c r="E20" s="42">
-        <v>1.7025344603076599E-3</v>
-      </c>
-      <c r="F20" s="44">
-        <v>0.85157613949245603</v>
-      </c>
-      <c r="G20" s="44">
-        <v>3257</v>
+      <c r="C20" s="40">
+        <v>896413</v>
+      </c>
+      <c r="D20" s="42">
+        <v>1.31169848339807E-2</v>
+      </c>
+      <c r="E20" s="41">
+        <v>8.8552273188170896E-2</v>
+      </c>
+      <c r="F20" s="43">
+        <v>0.924366775662819</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1607,83 +1539,83 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="24"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="39"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="39"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="39"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:A20">
+  <sortState ref="A9:A20">
     <sortCondition ref="A9:A20"/>
   </sortState>
   <mergeCells count="1">
@@ -1691,7 +1623,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1699,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1713,7 +1645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/images/Zillow/Tables/Zillow Summary Table.xlsx
+++ b/images/Zillow/Tables/Zillow Summary Table.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Box/economic_forecast_project/frequent_releases/housing_update/output/Zillow/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasfullagar/Box/economic_forecast_project/frequent_releases/housing_update/output/Zillow/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17624875-3967-EE4F-A943-49D587E9C8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="480" windowWidth="25600" windowHeight="14540"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Data Seasonally Adjusted</t>
   </si>
@@ -122,11 +123,14 @@
   <si>
     <t xml:space="preserve">*Represents an area's current median home value divided by its home value at the pre-recession peak. </t>
   </si>
+  <si>
+    <t>August, 2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -1243,11 +1247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1261,7 +1265,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="44">
-        <v>44222</v>
+        <v>44474</v>
       </c>
       <c r="B1" s="44"/>
     </row>
@@ -1297,8 +1301,8 @@
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13">
-        <v>44166</v>
+      <c r="C6" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1341,16 +1345,16 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="25">
-        <v>707573</v>
+        <v>802120</v>
       </c>
       <c r="D9" s="10">
-        <v>8.0119780781795508E-3</v>
+        <v>3.5593524506455997E-2</v>
       </c>
       <c r="E9" s="29">
-        <v>8.6888333169484994E-2</v>
+        <v>0.218049953836435</v>
       </c>
       <c r="F9" s="32">
-        <v>0.90617944215841795</v>
+        <v>1.0505869702173001</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1359,16 +1363,16 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="25">
-        <v>617633</v>
+        <v>700828</v>
       </c>
       <c r="D10" s="10">
-        <v>1.18728149072882E-2</v>
+        <v>2.57976033477605E-2</v>
       </c>
       <c r="E10" s="29">
-        <v>9.8652905778114502E-2</v>
+        <v>0.21214238644834699</v>
       </c>
       <c r="F10" s="32">
-        <v>1.17072176751345</v>
+        <v>1.3339271812968301</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1377,16 +1381,16 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="25">
-        <v>266104</v>
+        <v>298933</v>
       </c>
       <c r="D11" s="39">
-        <v>1.08414055080721E-2</v>
+        <v>1.98279891239455E-2</v>
       </c>
       <c r="E11" s="30">
-        <v>8.3851627382217894E-2</v>
+        <v>0.16732856144297001</v>
       </c>
       <c r="F11" s="32">
-        <v>1.24295389789341</v>
+        <v>1.3812824316019501</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,16 +1417,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="25">
-        <v>992685</v>
+        <v>1151915</v>
       </c>
       <c r="D14" s="10">
-        <v>1.14143713282566E-2</v>
+        <v>4.2123156925292699E-2</v>
       </c>
       <c r="E14" s="29">
-        <v>0.108847906706582</v>
+        <v>0.22977710780346899</v>
       </c>
       <c r="F14" s="32">
-        <v>1.01564570239402</v>
+        <v>1.1681570557024901</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1431,16 +1435,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="25">
-        <v>917707</v>
+        <v>1058989</v>
       </c>
       <c r="D15" s="10">
-        <v>6.67822851432454E-3</v>
+        <v>3.9269893049283001E-2</v>
       </c>
       <c r="E15" s="29">
-        <v>7.3786105592256804E-2</v>
+        <v>0.23247889110662401</v>
       </c>
       <c r="F15" s="32">
-        <v>0.88246827677194295</v>
+        <v>1.0923493491221901</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1449,16 +1453,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="25">
-        <v>406307</v>
+        <v>466456</v>
       </c>
       <c r="D16" s="39">
-        <v>1.09251684431573E-2</v>
+        <v>3.69698505644405E-2</v>
       </c>
       <c r="E16" s="30">
-        <v>9.9339271412801203E-2</v>
+        <v>0.24061076254890401</v>
       </c>
       <c r="F16" s="32">
-        <v>0.79364276338406703</v>
+        <v>0.93293812226742301</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1467,16 +1471,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="25">
-        <v>3469440</v>
+        <v>4126752</v>
       </c>
       <c r="D17" s="10">
-        <v>9.3148322535994092E-3</v>
+        <v>3.4463465477877001E-2</v>
       </c>
       <c r="E17" s="29">
-        <v>8.9005577424629195E-2</v>
+        <v>0.239796152885936</v>
       </c>
       <c r="F17" s="32">
-        <v>1.5067515100347599</v>
+        <v>1.07541658935641</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1485,16 +1489,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="25">
-        <v>1248479</v>
+        <v>1468019</v>
       </c>
       <c r="D18" s="10">
-        <v>8.6811867493339408E-3</v>
+        <v>3.8798773553997398E-2</v>
       </c>
       <c r="E18" s="29">
-        <v>9.8297763780635899E-2</v>
+        <v>0.24626274580049701</v>
       </c>
       <c r="F18" s="32">
-        <v>1.0300514415599999</v>
+        <v>1.1556711386677201</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1503,16 +1507,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="25">
-        <v>452491</v>
+        <v>512099</v>
       </c>
       <c r="D19" s="39">
-        <v>8.8940517545073004E-3</v>
+        <v>3.4894671322792399E-2</v>
       </c>
       <c r="E19" s="30">
-        <v>9.4490912521225004E-2</v>
+        <v>0.22210581581270999</v>
       </c>
       <c r="F19" s="32">
-        <v>0.87675572615225394</v>
+        <v>1.01685831667027</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1521,16 +1525,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="40">
-        <v>896413</v>
+        <v>1042019</v>
       </c>
       <c r="D20" s="42">
-        <v>1.31169848339807E-2</v>
+        <v>3.1825594947513497E-2</v>
       </c>
       <c r="E20" s="41">
-        <v>8.8552273188170896E-2</v>
+        <v>0.24738466989799601</v>
       </c>
       <c r="F20" s="43">
-        <v>0.924366775662819</v>
+        <v>1.0434307618207399</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1615,7 +1619,7 @@
       <c r="G32" s="33"/>
     </row>
   </sheetData>
-  <sortState ref="A9:A20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:A20">
     <sortCondition ref="A9:A20"/>
   </sortState>
   <mergeCells count="1">
@@ -1623,7 +1627,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1631,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1645,7 +1649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
